--- a/DOM_Banner/output/dept_banner/Krisstina Gowin_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Krisstina Gowin_2022.xlsx
@@ -689,7 +689,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>156</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Krisstina Gowin_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Krisstina Gowin_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Medical Oncology, Dana–Farber Cancer Institute, Jerome Lipper Multiple Myeloma Center; Harvard Medical School; Department of Data Science, Dana–Farber Cancer Institute; Harvard Medical School; Division of Hematology and Oncology, Boston Children’s Hospital; Harvard Medical School; Myeloma Service, the Department of Medicine, Memorial Sloan Kettering Cancer Center; Winship Cancer Institute of Emory University, Atlanta; Center for Multiple Myeloma, Massachusetts General Hospital; Harvard Medical School; Knight Cancer Institute, Oregon Health and Science University, Portland; New York, the Department of Medicine, Roswell Park Comprehensive Cancer Center, Buffalo; Division of Medical Oncology and Fred Hutchinson Cancer Research Center, University of Washington, Seattle; Department of Hematologic Oncology and Blood Disorders, Levine Cancer Institute, Atrium Health, Charlotte; Department of Lymphoma and Myeloma, University of Texas M.D. Anderson Cancer Center; Houston, and Myeloma, Waldenstrom’s, and Amyloidosis Program, Simmons Comprehensive Cancer Center, University of Texas Southwestern Medical Center, Dallas; Barbara Ann Karmanos Cancer Institute, Wayne State University School of Medicine, Detroit; Division of Hematology and Oncology, University of Mississippi Medical Center, Jackson; Duke University Medical Center, Durham; University of Pittsburgh Medical Center Hillman Cancer Center, Pittsburgh; Division of Hematology, Ohio State University Comprehensive Cancer Center, Columbus; Hematology and Oncology–Cancer Center, Atrium Health Wake Forest Baptist Medical Center, Winston-Salem; Department of Bone Marrow Transplant and Cellular Therapy, University of Arizona, Tucson; Center for Cell and Gene Therapy, Baylor College of Medicine and Houston Methodist Hospital; Division of Hematology and Medical Oncology, Icahn School of Medicine at Mount Sinai; Judy and Bernard Briskin Center for Multiple Myeloma Research, City of Hope Comprehensive Cancer Center, Duarte; Department of Blood and Marrow Transplant and Cellular Immunotherapy, H. Lee Moffitt Cancer Center and Research Institute, Tampa, Florida; Vanderbilt University Medical Center, Nashville; Division of Hematology Oncology, Medical University of South Carolina, Charleston; Division of Hematology and Oncology, Department of Internal Medicine, University of Michigan, Ann Arbor; Northern Light Eastern Maine Medical Center Cancer Care, Brewer; State University of New York Upstate Medical University, Syracuse; Department of Medicine, Division of Hematology, Stanford University, Stanford; O’Neal Comprehensive Cancer Center, the University of Alabama at Birmingham, Birmingham; Abramson Cancer Center, University of Pennsylvania, Philadelphia; Cancer Care Center of Maine, Bangor; Department of Medical Oncology, Davenport–Mugar Cancer Center, Cape Cod Hospital, Hyannis; Division of Hematology and Oncology, Department of Medicine, Medical College of Wisconsin, Milwaukee; Myeloma Service, the Department of Medicine, Memorial Sloan Kettering Cancer Center; Winship Cancer Institute of Emory University, Atlanta; Center for Multiple Myeloma, Massachusetts General Hospital; Knight Cancer Institute, Oregon Health and Science University, Portland; New York, the Department of Medicine, Roswell Park Comprehensive Cancer Center, Buffalo; National Marrow Donor Program, CIBMTR, Minneapolis; Department of Medical Oncology, Dana–Farber Cancer Institute, Jerome Lipper Multiple Myeloma Center; Department of Data Science, Dana–Farber Cancer Institute; Harvard Medical School; Department of Medical Oncology, Dana–Farber Cancer Institute, Jerome Lipper Multiple Myeloma Center; Harvard Medical School; Department of Medical Oncology, Dana–Farber Cancer Institute, Jerome Lipper Multiple Myeloma Center; Harvard Medical School; Department of Medical Oncology, Dana–Farber Cancer Institute, Jerome Lipper Multiple Myeloma Center; Harvard Medical School; Department of Medical Oncology, Dana–Farber Cancer Institute, Jerome Lipper Multiple Myeloma Center; Harvard Medical School; Department of Medical Oncology, Dana–Farber Cancer Institute, Jerome Lipper Multiple Myeloma Center; Harvard Medical School; Department of Medical Oncology, Dana–Farber Cancer Institute, Jerome Lipper Multiple Myeloma Center; Harvard Medical School; Department of Medical Oncology, Dana–Farber Cancer Institute, Jerome Lipper Multiple Myeloma Center; Harvard Medical School; Department of Medical Oncology, Dana–Farber Cancer Institute, Jerome Lipper Multiple Myeloma Center; Harvard Medical School; Department of Medical Oncology, Dana–Farber Cancer Institute, Jerome Lipper Multiple Myeloma Center; Harvard Medical School; Department of Hematology; Department of Hematology, University Hospital Hôtel-Dieu, Nantes; Unit for Genomics in Myeloma; Department of Hematology; Department of Medical Oncology, Dana–Farber Cancer Institute, Jerome Lipper Multiple Myeloma Center; Harvard Medical School; Department of Medical Oncology, Dana–Farber Cancer Institute, Jerome Lipper Multiple Myeloma Center; Harvard Medical School; Veterans Affairs Boston Healthcare System, Boston</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281628749</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Triplet Therapy, Transplantation, and Maintenance until Progression in Myeloma</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-07-14</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The New England Journal of Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Massachusetts Medical Society</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1056/nejmoa2204925</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35660812</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1056/nejmoa2204925</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Bone Marrow Transplantation and Haematology, St Vincent's Hospital, Darlinghurst, New South Wales, Australia; School of Clinical Medicine, UNSW Medicine &amp;amp; Health Kensington New South Wales Australia; Centre for Cancer Biology, SA Pathology and University of South Australia, Adelaide, South Australia, Australia; Department of Haematology and Bone Marrow Transplantation, Royal Adelaide Hospital, Adelaide, South Australia, Australia; Department of Haematology and Stem Cell Transplantation, University College London Hospitals NHS, London, UK; Department of Hematology and Oncology, Bone Marrow Transplant and Cellular Therapy, University of Arizona, Tucson, Arizona, USA; Department of Stem Cell Transplantation, University Medical Center Hamburg-Eppendorf, Hamburg, Germany; Medical Oncology and Haematology, Princess Margaret Cancer Centre, Toronto, Ontario, Canada; Department of Haematology, Auckland City Hospital, Auckland, New Zealand; Department of Stem Cell Transplantation, University Medical Center Hamburg-Eppendorf, Hamburg, Germany; Department of Bone Marrow Transplantation and Haematology, St Vincent's Hospital, Darlinghurst, New South Wales, Australia; School of Clinical Medicine, UNSW Medicine &amp;amp; Health Kensington New South Wales Australia; School of Medicine, University of Notre Dame Australia, Fremantle, Western Australia, Australia</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4284895899</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Innovative strategies to improve hematopoietic stem cell transplant outcomes in myelofibrosis</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-07-19</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>American Journal of Hematology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/ajh.26654</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35802782</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/ajh.26654</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4206633944</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Mobile App Intervention on Reducing the Myeloproliferative Neoplasm Symptom Burden: Pilot Feasibility and Acceptability Study</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-03-31</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>JMIR formative research</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.2196/33581</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35357315</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.2196/33581</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Mayo Clinic, Scottsdale, AZ;; Mayo Clinic, Phoenix, AZ;; Mays Cancer Center, MD Anderson, San Antonio, TX;; Mayo Clinic, Scottsdale, AZ;; Mayo Clinic, Scottsdale, AZ;; Mayo Clinic, Phoenix, AZ;; Department of Statistics, Mayo Clinic, Scottsdale, AZ;; Mayo Clinic, Scottsdale, AZ;; Mayo Clinic, Scottsdale, AZ;; UT Health San Antonio, San Antonio, TX;; Alliance Statistics and Data Center and Mayo Clinic, Phoenix, AZ;</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281742723</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Impact of imbalanced gender participation in online myeloproliferative neoplasm symptom surveys.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.e19078</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.e19078</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Hematology Oncology, Bone Marrow Transplant and Cellular Therapy, University of Arizona, Tucson, United States. Electronic address: gowink@arizona.edu.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225670362</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>TIMING IS EVERYTHING: When IS the Time Right for Transplant in Myelofibrosis Therapy?</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Transplantation and Cellular Therapy</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jtct.2022.03.002</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35365335</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jtct.2022.03.002</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Division of Hematology and Oncology; Department of Molecular and Cellular Biology; Division of Hematology and Oncology; Arizona Cancer Center; Arizona Cancer Center; Department of Molecular and Cellular Biology; BIO5 Institute; School of Nutritional Sciences and Wellness, College of Agriculture and Life Sciences; Department of Bone Marrow Transplant and Cellular Therapy, University of Arizona, Tucson, AZ, USA, Tucson, United States of America; Division of Hematology and Oncology</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283363156</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>PB1992: HISPANIC ETHNICITY AS A STRONG PREDICTOR OF POOR RESPONSE TO INDUCTION THERAPY AND ASCT IN TRANSPLANT ELIGIBLE MULTIPLE MYELOMA PATIENTS</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>HemaSphere</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Wolters Kluwer</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.hs9.0000850800.32486.b9</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.hs9.0000850800.32486.b9</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>1University of Arizona Department of Medicine, Tucson,; 2University of Arizona Cancer Center, Tucson, AZ; 2University of Arizona Cancer Center, Tucson, AZ; 3Department of Internal Medicine, Division of Hematology/Oncology, University of Arizona, Tucson, AZ; 4Department of Hematology, University of Arizona, Tucson, AZ; 5Arizona Cancer Center, Tucson, AZ; 2University of Arizona Cancer Center, Tucson, AZ; 6University of Arizona Cancer Center, University of Arizona College of Medicine, Tucson, AZ; 7Departments of Pediatrics, University of Arizona, Tucson, AZ; 8University of Arizona Cancer Center, Division of Hematology and Medical Oncology, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310108057</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Role of Anakinra in the Management of Steroid Refractory High Grade Immune Effector Cell-Associated Neurotoxicity Syndrome (ICANS) after Anti-CD 19 CAR-T Cell Therapy, a Single Center Experience</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-168240</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-168240</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>1Hematology/Medical Oncology, University of Arizona, Tucson, AZ; 2Cancer Center, University of Arizona, Tucson, AZ; 3Epidemiology and Biostatistics, University of Arizona Mel and Enid Zuckerman College of Public Health, Tucson, AZ; 4Department of Medicine, University of Arizona, Tucson, AZ; 5Department of Internal Medicine, University of Utah, Salt Lake City, UT; 6Huntsman Cancer Institute, University of Utah School of Medicine, Salt Lake City, UT; 7Fred Hutchinson Cancer Center, Seattle, WA; 8Department of Medicine, Divisions of Oncology and Hematology, Stanford University, Stanford, CA; 9Harvard Medical School, Dana-Faber Cancer Institute, Boston,; 10Division of General Internal Medicine, Department of Medicine, Brigham and Women's Hospital, Boston, MA; 11Department of Medical Oncology, Dana-Farber Cancer Institute, Boston, MA; 12Oregon Health and Science University, Portland, OR; 13Myeloma Division, University of Miami, Sylvester Comprehensive Cancer Center, Miami,; 14Department of Hematology, University of Arizona, Tucson, AZ; 15University of Washington, Seattle,</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310162524</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Plasma Cell Leukemia: A Multicenter Retrospective Study of 130 Patients</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-164713</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-164713</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
